--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Quick Heal Technologies Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Quick Heal Technologies Ltd/Pruned_Excel/Final_Parameters/Semi_Final/Quick Heal Technologies Ltd_Semi_Final.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
   <si>
     <t>Balance Sheet of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
@@ -197,6 +197,12 @@
     <t>Quarterly Results of Quick Heal Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -251,121 +257,58 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Mar 15 Q4</t>
-  </si>
-  <si>
-    <t>Jun 15 Q1</t>
-  </si>
-  <si>
-    <t>Sep 15 Q2</t>
-  </si>
-  <si>
-    <t>Dec 15 Q3</t>
-  </si>
-  <si>
-    <t>Mar 16 Q4</t>
-  </si>
-  <si>
-    <t>Jun 16 Q1</t>
-  </si>
-  <si>
-    <t>Sep 16 Q2</t>
-  </si>
-  <si>
-    <t>Dec 16 Q3</t>
-  </si>
-  <si>
-    <t>Mar 17 Q4</t>
-  </si>
-  <si>
-    <t>Jun 17 Q1</t>
-  </si>
-  <si>
-    <t>Sep 17 Q2</t>
-  </si>
-  <si>
-    <t>Dec 17 Q3</t>
-  </si>
-  <si>
-    <t>Mar 18 Q4</t>
-  </si>
-  <si>
-    <t>Jun 18 Q1</t>
-  </si>
-  <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
   <si>
     <t>Key Financial Ratios of Quick Heal Technologies(in Rs. Cr.)</t>
@@ -2886,13 +2829,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2909,19 +2852,19 @@
         <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>66</v>
@@ -2956,37 +2899,43 @@
       <c r="U1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
         <v>103.65</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>103.65</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>17.42</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>8.369999999999999</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>38.93</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>33.63</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1.68</v>
-      </c>
-      <c r="I2">
-        <v>35.3</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>35.3</v>
@@ -2998,22 +2947,22 @@
         <v>35.3</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>35.3</v>
+      </c>
+      <c r="P2">
         <v>11.01</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>24.29</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>24.29</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>61.07</v>
-      </c>
-      <c r="R2">
-        <v>3.98</v>
-      </c>
-      <c r="S2">
-        <v>3.92</v>
       </c>
       <c r="T2">
         <v>3.98</v>
@@ -3021,37 +2970,43 @@
       <c r="U2">
         <v>3.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2">
+        <v>3.98</v>
+      </c>
+      <c r="W2">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3">
         <v>61.83</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>61.83</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>19.38</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>5.7</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>30.95</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.33</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1.52</v>
-      </c>
-      <c r="I3">
-        <v>1.84</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
       </c>
       <c r="K3">
         <v>1.84</v>
@@ -3063,60 +3018,66 @@
         <v>1.84</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.84</v>
+      </c>
+      <c r="P3">
         <v>0.46</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.38</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.38</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>61.07</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>79</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
         <v>84.90000000000001</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>84.90000000000001</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>20.93</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>5.64</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>22.82</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>34.55</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>2.47</v>
-      </c>
-      <c r="I4">
-        <v>37.01</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>37.01</v>
@@ -3128,22 +3089,22 @@
         <v>37.01</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>37.01</v>
+      </c>
+      <c r="P4">
         <v>12.06</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>24.96</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>24.96</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>61.07</v>
-      </c>
-      <c r="R4">
-        <v>4.09</v>
-      </c>
-      <c r="S4">
-        <v>4.03</v>
       </c>
       <c r="T4">
         <v>4.09</v>
@@ -3151,37 +3112,43 @@
       <c r="U4">
         <v>4.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4">
+        <v>4.09</v>
+      </c>
+      <c r="W4">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5">
         <v>57</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>20.75</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>6.02</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>31.91</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-4.35</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>2.21</v>
-      </c>
-      <c r="I5">
-        <v>-2.14</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
       </c>
       <c r="K5">
         <v>-2.14</v>
@@ -3193,22 +3160,22 @@
         <v>-2.14</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-2.14</v>
+      </c>
+      <c r="P5">
         <v>0.05</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>-2.19</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>-2.19</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>62.24</v>
-      </c>
-      <c r="R5">
-        <v>-0.35</v>
-      </c>
-      <c r="S5">
-        <v>-0.35</v>
       </c>
       <c r="T5">
         <v>-0.35</v>
@@ -3216,37 +3183,43 @@
       <c r="U5">
         <v>-0.35</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5">
+        <v>-0.35</v>
+      </c>
+      <c r="W5">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6">
         <v>130.74</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>130.74</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>22.23</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>6.32</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>43.81</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>53.14</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3.16</v>
-      </c>
-      <c r="I6">
-        <v>56.29</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
       </c>
       <c r="K6">
         <v>56.29</v>
@@ -3258,22 +3231,22 @@
         <v>56.29</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>56.29</v>
+      </c>
+      <c r="P6">
         <v>17.58</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>38.71</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>38.71</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>70.03</v>
-      </c>
-      <c r="R6">
-        <v>6.21</v>
-      </c>
-      <c r="S6">
-        <v>6.21</v>
       </c>
       <c r="T6">
         <v>6.21</v>
@@ -3281,64 +3254,70 @@
       <c r="U6">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6">
+        <v>6.21</v>
+      </c>
+      <c r="W6">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7">
         <v>47.51</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>47.51</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>23.74</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>7.39</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>23.4</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>-8.890000000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>7.42</v>
-      </c>
-      <c r="I7">
-        <v>-1.48</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="K7">
         <v>-1.48</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>-1.48</v>
+      </c>
+      <c r="N7">
         <v>-3.78</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>-5.26</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>-1.87</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>-3.39</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>-3.39</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>70.03</v>
-      </c>
-      <c r="R7">
-        <v>-0.48</v>
-      </c>
-      <c r="S7">
-        <v>-0.48</v>
       </c>
       <c r="T7">
         <v>-0.48</v>
@@ -3346,37 +3325,43 @@
       <c r="U7">
         <v>-0.48</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7">
+        <v>-0.48</v>
+      </c>
+      <c r="W7">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
         <v>106.43</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>106.43</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>25.39</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>7.76</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>24.4</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>47.84</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>6.91</v>
-      </c>
-      <c r="I8">
-        <v>54.74</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
       </c>
       <c r="K8">
         <v>54.74</v>
@@ -3388,22 +3373,22 @@
         <v>54.74</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>54.74</v>
+      </c>
+      <c r="P8">
         <v>18.43</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>36.31</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>36.31</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>70.03</v>
-      </c>
-      <c r="R8">
-        <v>5.18</v>
-      </c>
-      <c r="S8">
-        <v>5.15</v>
       </c>
       <c r="T8">
         <v>5.18</v>
@@ -3411,64 +3396,70 @@
       <c r="U8">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8">
+        <v>5.18</v>
+      </c>
+      <c r="W8">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9">
         <v>53.19</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>53.19</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>24.91</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>7.56</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>23.86</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>-2.68</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7.57</v>
-      </c>
-      <c r="I9">
-        <v>4.89</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
       </c>
       <c r="K9">
         <v>4.89</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>4.89</v>
+      </c>
+      <c r="N9">
         <v>-0.63</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>4.26</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>1.64</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>2.62</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>2.62</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>70.09</v>
-      </c>
-      <c r="R9">
-        <v>0.37</v>
-      </c>
-      <c r="S9">
-        <v>0.37</v>
       </c>
       <c r="T9">
         <v>0.37</v>
@@ -3476,37 +3467,43 @@
       <c r="U9">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9">
+        <v>0.37</v>
+      </c>
+      <c r="W9">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10">
         <v>91.89</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>91.89</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>24.73</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>8.16</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>29.23</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>30.11</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>5.89</v>
-      </c>
-      <c r="I10">
-        <v>36</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
       </c>
       <c r="K10">
         <v>36</v>
@@ -3518,22 +3515,22 @@
         <v>36</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>36</v>
+      </c>
+      <c r="P10">
         <v>12.37</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>23.63</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>23.63</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>70.09999999999999</v>
-      </c>
-      <c r="R10">
-        <v>3.37</v>
-      </c>
-      <c r="S10">
-        <v>3.35</v>
       </c>
       <c r="T10">
         <v>3.37</v>
@@ -3541,37 +3538,43 @@
       <c r="U10">
         <v>3.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10">
+        <v>3.37</v>
+      </c>
+      <c r="W10">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11">
         <v>29.72</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>29.72</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>25.57</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>6.41</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>19.72</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>-22.2</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>5.46</v>
-      </c>
-      <c r="I11">
-        <v>-16.74</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
       </c>
       <c r="K11">
         <v>-16.74</v>
@@ -3583,22 +3586,22 @@
         <v>-16.74</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>-16.74</v>
+      </c>
+      <c r="P11">
         <v>-5.65</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>-11.09</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>-11.09</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>70.19</v>
-      </c>
-      <c r="R11">
-        <v>-1.58</v>
-      </c>
-      <c r="S11">
-        <v>-1.57</v>
       </c>
       <c r="T11">
         <v>-1.58</v>
@@ -3606,37 +3609,43 @@
       <c r="U11">
         <v>-1.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11">
+        <v>-1.58</v>
+      </c>
+      <c r="W11">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
         <v>104.53</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>104.53</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>25.69</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>6.76</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>14.4</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>53.53</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>5.69</v>
-      </c>
-      <c r="I12">
-        <v>59.22</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
       </c>
       <c r="K12">
         <v>59.22</v>
@@ -3648,22 +3657,22 @@
         <v>59.22</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>59.22</v>
+      </c>
+      <c r="P12">
         <v>19.95</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>39.27</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>39.27</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>70.19</v>
-      </c>
-      <c r="R12">
-        <v>5.6</v>
-      </c>
-      <c r="S12">
-        <v>5.58</v>
       </c>
       <c r="T12">
         <v>5.6</v>
@@ -3671,64 +3680,70 @@
       <c r="U12">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>5.6</v>
+      </c>
+      <c r="W12">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13">
         <v>63.59</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>63.59</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>23.76</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>6.79</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>24.42</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>6.32</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>5.17</v>
-      </c>
-      <c r="I13">
-        <v>11.49</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
       </c>
       <c r="K13">
         <v>11.49</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>11.49</v>
+      </c>
+      <c r="N13">
         <v>-0.33</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>11.17</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>3.2</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>7.97</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>7.97</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>70.19</v>
-      </c>
-      <c r="R13">
-        <v>1.13</v>
-      </c>
-      <c r="S13">
-        <v>1.13</v>
       </c>
       <c r="T13">
         <v>1.13</v>
@@ -3736,64 +3751,70 @@
       <c r="U13">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13">
+        <v>1.13</v>
+      </c>
+      <c r="W13">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="B14">
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14">
         <v>118.38</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>118.38</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>24.65</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>6.92</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>22.37</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>59.2</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>13.55</v>
-      </c>
-      <c r="I14">
-        <v>72.73999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
       </c>
       <c r="K14">
         <v>72.73999999999999</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>72.73999999999999</v>
+      </c>
+      <c r="N14">
         <v>-7.18</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>65.56</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>22.84</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>42.72</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>42.72</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>70.39</v>
-      </c>
-      <c r="R14">
-        <v>6.08</v>
-      </c>
-      <c r="S14">
-        <v>6.07</v>
       </c>
       <c r="T14">
         <v>6.08</v>
@@ -3801,37 +3822,43 @@
       <c r="U14">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14">
+        <v>6.08</v>
+      </c>
+      <c r="W14">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
         <v>90</v>
       </c>
-      <c r="B15">
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15">
         <v>52.79</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>52.79</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>25.09</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>5.91</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>16.62</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>3.36</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>6.38</v>
-      </c>
-      <c r="I15">
-        <v>9.73</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
       </c>
       <c r="K15">
         <v>9.73</v>
@@ -3843,22 +3870,22 @@
         <v>9.73</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>9.73</v>
+      </c>
+      <c r="P15">
         <v>3.29</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>6.44</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>6.44</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>70.47</v>
-      </c>
-      <c r="R15">
-        <v>0.91</v>
-      </c>
-      <c r="S15">
-        <v>0.91</v>
       </c>
       <c r="T15">
         <v>0.91</v>
@@ -3866,64 +3893,70 @@
       <c r="U15">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15">
+        <v>0.91</v>
+      </c>
+      <c r="W15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="B16">
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
         <v>108.86</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>108.86</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>24.35</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>6.01</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>19.59</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>54.27</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>8.640000000000001</v>
-      </c>
-      <c r="I16">
-        <v>62.9</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
       <c r="K16">
         <v>62.9</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>62.9</v>
+      </c>
+      <c r="N16">
         <v>-5</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>57.9</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>20.2</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>37.7</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>37.7</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>70.48999999999999</v>
-      </c>
-      <c r="R16">
-        <v>5.35</v>
-      </c>
-      <c r="S16">
-        <v>5.34</v>
       </c>
       <c r="T16">
         <v>5.35</v>
@@ -3931,37 +3964,43 @@
       <c r="U16">
         <v>5.34</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16">
+        <v>5.35</v>
+      </c>
+      <c r="W16">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="B17">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
         <v>65.91</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>65.91</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>24.13</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>5.97</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>17.97</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>14.97</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>9.01</v>
-      </c>
-      <c r="I17">
-        <v>23.98</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
       </c>
       <c r="K17">
         <v>23.98</v>
@@ -3973,22 +4012,22 @@
         <v>23.98</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>23.98</v>
+      </c>
+      <c r="P17">
         <v>7.89</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>16.09</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>16.09</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>70.55</v>
-      </c>
-      <c r="R17">
-        <v>2.28</v>
-      </c>
-      <c r="S17">
-        <v>2.28</v>
       </c>
       <c r="T17">
         <v>2.28</v>
@@ -3996,64 +4035,70 @@
       <c r="U17">
         <v>2.28</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17">
+        <v>2.28</v>
+      </c>
+      <c r="W17">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
         <v>93</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>85.34999999999999</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>85.34999999999999</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>23.58</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>5.63</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>19.28</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>33.29</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>8.48</v>
-      </c>
-      <c r="I18">
-        <v>41.77</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
       </c>
       <c r="K18">
         <v>41.77</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>41.77</v>
+      </c>
+      <c r="N18">
         <v>-4.32</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>37.45</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>13.73</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>23.73</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>23.73</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>70.56</v>
-      </c>
-      <c r="R18">
-        <v>3.37</v>
-      </c>
-      <c r="S18">
-        <v>3.37</v>
       </c>
       <c r="T18">
         <v>3.37</v>
@@ -4061,37 +4106,43 @@
       <c r="U18">
         <v>3.37</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18">
+        <v>3.37</v>
+      </c>
+      <c r="W18">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
         <v>94</v>
       </c>
-      <c r="B19">
+      <c r="D19">
         <v>57.15</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>57.15</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>26.41</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>5.16</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>15.89</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>7.85</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>8.43</v>
-      </c>
-      <c r="I19">
-        <v>16.28</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
       </c>
       <c r="K19">
         <v>16.28</v>
@@ -4103,22 +4154,22 @@
         <v>16.28</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>16.28</v>
+      </c>
+      <c r="P19">
         <v>4.19</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>12.09</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>12.09</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>64.2</v>
-      </c>
-      <c r="R19">
-        <v>1.73</v>
-      </c>
-      <c r="S19">
-        <v>1.73</v>
       </c>
       <c r="T19">
         <v>1.73</v>
@@ -4126,37 +4177,43 @@
       <c r="U19">
         <v>1.73</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19">
+        <v>1.73</v>
+      </c>
+      <c r="W19">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" t="s">
         <v>95</v>
       </c>
-      <c r="B20">
+      <c r="D20">
         <v>97.69</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>97.69</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>25.07</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>5.53</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>21.16</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>43.08</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>7.3</v>
-      </c>
-      <c r="I20">
-        <v>50.37</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
       </c>
       <c r="K20">
         <v>50.37</v>
@@ -4168,22 +4225,22 @@
         <v>50.37</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>50.37</v>
+      </c>
+      <c r="P20">
         <v>12.81</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>37.57</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>37.57</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>64.2</v>
-      </c>
-      <c r="R20">
-        <v>5.85</v>
-      </c>
-      <c r="S20">
-        <v>5.85</v>
       </c>
       <c r="T20">
         <v>5.85</v>
@@ -4191,37 +4248,43 @@
       <c r="U20">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20">
+        <v>5.85</v>
+      </c>
+      <c r="W20">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" t="s">
         <v>96</v>
       </c>
-      <c r="B21">
+      <c r="D21">
         <v>65.14</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>65.14</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>24.3</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>5.39</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>15.75</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>18.05</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>7.51</v>
-      </c>
-      <c r="I21">
-        <v>25.56</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
       </c>
       <c r="K21">
         <v>25.56</v>
@@ -4233,22 +4296,22 @@
         <v>25.56</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>25.56</v>
+      </c>
+      <c r="P21">
         <v>7.59</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>17.96</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>17.96</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>64.2</v>
-      </c>
-      <c r="R21">
-        <v>2.8</v>
-      </c>
-      <c r="S21">
-        <v>2.8</v>
       </c>
       <c r="T21">
         <v>2.8</v>
@@ -4256,64 +4319,70 @@
       <c r="U21">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21">
+        <v>2.8</v>
+      </c>
+      <c r="W21">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
         <v>63.43</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>63.43</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>24.2</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>5.59</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>33.32</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>2.44</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>8.109999999999999</v>
-      </c>
-      <c r="I22">
-        <v>10.55</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
       </c>
       <c r="K22">
         <v>10.55</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>10.55</v>
+      </c>
+      <c r="N22">
         <v>-2.32</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>8.23</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>2.21</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>6.02</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>6.02</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>64.2</v>
-      </c>
-      <c r="R22">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="S22">
-        <v>0.9399999999999999</v>
       </c>
       <c r="T22">
         <v>0.9399999999999999</v>
@@ -4321,37 +4390,43 @@
       <c r="U22">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23">
         <v>73.44</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>73.44</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>25.75</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>4.65</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>12.41</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>28.18</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>6.26</v>
-      </c>
-      <c r="I23">
-        <v>34.44</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
       </c>
       <c r="K23">
         <v>34.44</v>
@@ -4363,22 +4438,22 @@
         <v>34.44</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.44</v>
+      </c>
+      <c r="P23">
         <v>8.81</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>25.63</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>25.63</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>64.2</v>
-      </c>
-      <c r="R23">
-        <v>3.99</v>
-      </c>
-      <c r="S23">
-        <v>3.99</v>
       </c>
       <c r="T23">
         <v>3.99</v>
@@ -4386,37 +4461,43 @@
       <c r="U23">
         <v>3.99</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>3.99</v>
+      </c>
+      <c r="W23">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
         <v>82.86</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>82.86</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>27.71</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>4.87</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>13.63</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>33.86</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>5.72</v>
-      </c>
-      <c r="I24">
-        <v>39.58</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
       </c>
       <c r="K24">
         <v>39.58</v>
@@ -4428,22 +4509,22 @@
         <v>39.58</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>39.58</v>
+      </c>
+      <c r="P24">
         <v>11.18</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>28.4</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>28.4</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>64.2</v>
-      </c>
-      <c r="R24">
-        <v>4.43</v>
-      </c>
-      <c r="S24">
-        <v>4.43</v>
       </c>
       <c r="T24">
         <v>4.43</v>
@@ -4451,37 +4532,43 @@
       <c r="U24">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24">
+        <v>4.43</v>
+      </c>
+      <c r="W24">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
         <v>71.12</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>71.12</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>28.6</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>4.96</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>24.66</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>10.79</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>6.23</v>
-      </c>
-      <c r="I25">
-        <v>17.02</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
       </c>
       <c r="K25">
         <v>17.02</v>
@@ -4493,22 +4580,22 @@
         <v>17.02</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>17.02</v>
+      </c>
+      <c r="P25">
         <v>4.3</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>12.72</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>12.72</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>64.20999999999999</v>
-      </c>
-      <c r="R25">
-        <v>1.98</v>
-      </c>
-      <c r="S25">
-        <v>1.98</v>
       </c>
       <c r="T25">
         <v>1.98</v>
@@ -4516,37 +4603,43 @@
       <c r="U25">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25">
+        <v>1.98</v>
+      </c>
+      <c r="W25">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26">
         <v>106.11</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>106.11</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>31.14</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>16.89</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>49.08</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>5.72</v>
-      </c>
-      <c r="I26">
-        <v>54.8</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
       </c>
       <c r="K26">
         <v>54.8</v>
@@ -4558,22 +4651,22 @@
         <v>54.8</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>54.8</v>
+      </c>
+      <c r="P26">
         <v>14.76</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>40.04</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>40.04</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>64.20999999999999</v>
-      </c>
-      <c r="R26">
-        <v>6.24</v>
-      </c>
-      <c r="S26">
-        <v>6.22</v>
       </c>
       <c r="T26">
         <v>6.24</v>
@@ -4581,64 +4674,70 @@
       <c r="U26">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26">
+        <v>6.24</v>
+      </c>
+      <c r="W26">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27">
         <v>54.38</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>54.38</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>32.5</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>4.1</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>16.12</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>0.33</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>6.24</v>
-      </c>
-      <c r="I27">
-        <v>6.57</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
       </c>
       <c r="K27">
         <v>6.57</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>6.57</v>
+      </c>
+      <c r="N27">
         <v>-2.16</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>4.4</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>1.14</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>3.26</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>3.26</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>57.88</v>
-      </c>
-      <c r="R27">
-        <v>0.51</v>
-      </c>
-      <c r="S27">
-        <v>0.51</v>
       </c>
       <c r="T27">
         <v>0.51</v>
@@ -4646,37 +4745,43 @@
       <c r="U27">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27">
+        <v>0.51</v>
+      </c>
+      <c r="W27">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
         <v>103.79</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>103.79</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>33.69</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>4.16</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>19.81</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>42.14</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>3.65</v>
-      </c>
-      <c r="I28">
-        <v>45.79</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
       </c>
       <c r="K28">
         <v>45.79</v>
@@ -4688,22 +4793,22 @@
         <v>45.79</v>
       </c>
       <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>45.79</v>
+      </c>
+      <c r="P28">
         <v>11.14</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>34.65</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>34.65</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>57.9</v>
-      </c>
-      <c r="R28">
-        <v>5.4</v>
-      </c>
-      <c r="S28">
-        <v>5.36</v>
       </c>
       <c r="T28">
         <v>5.4</v>
@@ -4711,37 +4816,43 @@
       <c r="U28">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>5.4</v>
+      </c>
+      <c r="W28">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29">
+        <v>85</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
         <v>79.63</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>79.63</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>33.07</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>4.54</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>23.4</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>15.91</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>3.63</v>
-      </c>
-      <c r="I29">
-        <v>19.53</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
       </c>
       <c r="K29">
         <v>19.53</v>
@@ -4753,22 +4864,22 @@
         <v>19.53</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>19.53</v>
+      </c>
+      <c r="P29">
         <v>5.25</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>14.28</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>14.28</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>57.96</v>
-      </c>
-      <c r="R29">
-        <v>2.47</v>
-      </c>
-      <c r="S29">
-        <v>2.45</v>
       </c>
       <c r="T29">
         <v>2.47</v>
@@ -4776,64 +4887,70 @@
       <c r="U29">
         <v>2.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29">
+        <v>2.47</v>
+      </c>
+      <c r="W29">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30">
         <v>103.75</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>103.75</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>39.08</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>4.58</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>25.59</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>30.11</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>5.66</v>
-      </c>
-      <c r="I30">
-        <v>35.77</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
       </c>
       <c r="K30">
         <v>35.77</v>
       </c>
       <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>35.77</v>
+      </c>
+      <c r="N30">
         <v>-1.9</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>33.87</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>7.84</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>26.03</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>26.03</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>58.01</v>
-      </c>
-      <c r="R30">
-        <v>4.49</v>
-      </c>
-      <c r="S30">
-        <v>4.47</v>
       </c>
       <c r="T30">
         <v>4.49</v>
@@ -4841,37 +4958,43 @@
       <c r="U30">
         <v>4.47</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="V30">
+        <v>4.49</v>
+      </c>
+      <c r="W30">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
         <v>61.09</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>61.09</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>37.11</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>3.95</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>21.22</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>-2.79</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>3.19</v>
-      </c>
-      <c r="I31">
-        <v>0.4</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
       <c r="K31">
         <v>0.4</v>
@@ -4883,22 +5006,22 @@
         <v>0.4</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0.4</v>
+      </c>
+      <c r="P31">
         <v>0.1</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>0.3</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>0.3</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>58.02</v>
-      </c>
-      <c r="R31">
-        <v>0.05</v>
-      </c>
-      <c r="S31">
-        <v>0.05</v>
       </c>
       <c r="T31">
         <v>0.05</v>
@@ -4906,37 +5029,43 @@
       <c r="U31">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31">
+        <v>0.05</v>
+      </c>
+      <c r="W31">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B32">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
         <v>100.93</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>100.93</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>39.45</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>4.14</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>29.34</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>24.2</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>5.38</v>
-      </c>
-      <c r="I32">
-        <v>29.58</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
       </c>
       <c r="K32">
         <v>29.58</v>
@@ -4948,22 +5077,22 @@
         <v>29.58</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>29.58</v>
+      </c>
+      <c r="P32">
         <v>7.47</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>22.11</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>22.11</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>58.07</v>
-      </c>
-      <c r="R32">
-        <v>3.81</v>
-      </c>
-      <c r="S32">
-        <v>3.8</v>
       </c>
       <c r="T32">
         <v>3.81</v>
@@ -4971,64 +5100,70 @@
       <c r="U32">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="V32">
+        <v>3.81</v>
+      </c>
+      <c r="W32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33">
         <v>66.8</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>66.8</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>40.38</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>4.17</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>34.63</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>-14.89</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>3.85</v>
-      </c>
-      <c r="I33">
-        <v>-11.04</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
       </c>
       <c r="K33">
         <v>-11.04</v>
       </c>
       <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>-11.04</v>
+      </c>
+      <c r="N33">
         <v>0.1</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>-10.94</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>-2.78</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>-8.16</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>-8.16</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>53.07</v>
-      </c>
-      <c r="R33">
-        <v>-1.5</v>
-      </c>
-      <c r="S33">
-        <v>-1.5</v>
       </c>
       <c r="T33">
         <v>-1.5</v>
@@ -5036,37 +5171,43 @@
       <c r="U33">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>-1.5</v>
+      </c>
+      <c r="W33">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34">
         <v>49.29</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>49.29</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>37.95</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>3.73</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>25.9</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>-19.71</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>9.960000000000001</v>
-      </c>
-      <c r="I34">
-        <v>-9.75</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
       </c>
       <c r="K34">
         <v>-9.75</v>
@@ -5078,22 +5219,22 @@
         <v>-9.75</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>-9.75</v>
+      </c>
+      <c r="P34">
         <v>-3.2</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>-6.55</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>-6.55</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>53.07</v>
-      </c>
-      <c r="R34">
-        <v>-1.23</v>
-      </c>
-      <c r="S34">
-        <v>-1.23</v>
       </c>
       <c r="T34">
         <v>-1.23</v>
@@ -5101,37 +5242,43 @@
       <c r="U34">
         <v>-1.23</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34">
+        <v>-1.23</v>
+      </c>
+      <c r="W34">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35">
         <v>51.43</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>51.43</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>39.33</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>2.93</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>26.29</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>-18.13</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>4.73</v>
-      </c>
-      <c r="I35">
-        <v>-13.4</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
       </c>
       <c r="K35">
         <v>-13.4</v>
@@ -5143,22 +5290,22 @@
         <v>-13.4</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>-13.4</v>
+      </c>
+      <c r="P35">
         <v>-0.52</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>-12.88</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>-12.88</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>53.07</v>
-      </c>
-      <c r="R35">
-        <v>-2.43</v>
-      </c>
-      <c r="S35">
-        <v>-2.43</v>
       </c>
       <c r="T35">
         <v>-2.43</v>
@@ -5166,37 +5313,43 @@
       <c r="U35">
         <v>-2.43</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35">
+        <v>-2.43</v>
+      </c>
+      <c r="W35">
+        <v>-2.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
         <v>78.37</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>78.37</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>41.7</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>3.25</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>23.63</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>7.73</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>5.68</v>
-      </c>
-      <c r="I36">
-        <v>13.41</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
       </c>
       <c r="K36">
         <v>13.41</v>
@@ -5208,22 +5361,22 @@
         <v>13.41</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>13.41</v>
+      </c>
+      <c r="P36">
         <v>0.51</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>12.9</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>12.9</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>53.08</v>
-      </c>
-      <c r="R36">
-        <v>2.43</v>
-      </c>
-      <c r="S36">
-        <v>2.42</v>
       </c>
       <c r="T36">
         <v>2.43</v>
@@ -5231,37 +5384,43 @@
       <c r="U36">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>2.43</v>
+      </c>
+      <c r="W36">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37">
         <v>81.92</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>81.92</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>43.82</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>3.24</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>24.47</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>8.35</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>4.14</v>
-      </c>
-      <c r="I37">
-        <v>12.49</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
       </c>
       <c r="K37">
         <v>12.49</v>
@@ -5273,22 +5432,22 @@
         <v>12.49</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>12.49</v>
+      </c>
+      <c r="P37">
         <v>2.47</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>10.02</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>10.02</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>53.32</v>
-      </c>
-      <c r="R37">
-        <v>1.88</v>
-      </c>
-      <c r="S37">
-        <v>1.85</v>
       </c>
       <c r="T37">
         <v>1.88</v>
@@ -5296,64 +5455,70 @@
       <c r="U37">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="V37">
+        <v>1.88</v>
+      </c>
+      <c r="W37">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38">
         <v>80.03</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>80.03</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>44.09</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>3.18</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>24.19</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>6.85</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>6.82</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>13.67</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.13</v>
-      </c>
-      <c r="K38">
-        <v>13.54</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
       </c>
       <c r="M38">
         <v>13.54</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>13.54</v>
+      </c>
+      <c r="P38">
         <v>-0.49</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>14.03</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>14.03</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>53.51</v>
-      </c>
-      <c r="R38">
-        <v>2.63</v>
-      </c>
-      <c r="S38">
-        <v>2.57</v>
       </c>
       <c r="T38">
         <v>2.63</v>
@@ -5361,64 +5526,70 @@
       <c r="U38">
         <v>2.57</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="V38">
+        <v>2.63</v>
+      </c>
+      <c r="W38">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39">
         <v>70.29000000000001</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>70.29000000000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>44.17</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>2.79</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>22.14</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>-0.17</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>5.06</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>4.89</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.05</v>
-      </c>
-      <c r="K39">
-        <v>4.84</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
       </c>
       <c r="M39">
         <v>4.84</v>
       </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>4.84</v>
+      </c>
+      <c r="P39">
         <v>0.78</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>4.06</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>4.06</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>53.54</v>
-      </c>
-      <c r="R39">
-        <v>0.76</v>
-      </c>
-      <c r="S39">
-        <v>0.74</v>
       </c>
       <c r="T39">
         <v>0.76</v>
@@ -5426,69 +5597,81 @@
       <c r="U39">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="V39">
+        <v>0.76</v>
+      </c>
+      <c r="W39">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40">
+        <v>88</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
         <v>73.56999999999999</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>73.56999999999999</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>47.21</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>3.15</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>20.94</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>-0.27</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>5.21</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>4.94</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.05</v>
-      </c>
-      <c r="K40">
-        <v>4.89</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
       </c>
       <c r="M40">
         <v>4.89</v>
       </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>4.89</v>
+      </c>
+      <c r="P40">
         <v>0.92</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>3.97</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>3.97</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>53.8</v>
-      </c>
-      <c r="R40">
-        <v>0.74</v>
-      </c>
-      <c r="S40">
-        <v>0.72</v>
       </c>
       <c r="T40">
         <v>0.74</v>
       </c>
       <c r="U40">
+        <v>0.72</v>
+      </c>
+      <c r="V40">
+        <v>0.74</v>
+      </c>
+      <c r="W40">
         <v>0.72</v>
       </c>
     </row>
@@ -5507,58 +5690,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:18">
